--- a/document/interview/GBST Interview Questions(Answered).xlsx
+++ b/document/interview/GBST Interview Questions(Answered).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>No.</t>
   </si>
@@ -177,13 +177,43 @@
   </si>
   <si>
     <t>No, just the developer role. In MS SQL Server, I used SQL Query Analyser to check the query. This tool allow me to check the performance of query (where take long time to run, which part has problem), quick insert,update, delete rows in table (with Table Window) and even debug the store procedure performance</t>
+  </si>
+  <si>
+    <t>TOAN</t>
+  </si>
+  <si>
+    <t>I'm Good in ….(major programming languages and techniques)…I also know ….(major techniques..)….don't be too detail as #2</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>coverage?</t>
+  </si>
+  <si>
+    <t>A bit on CI purpose: ensure the team are always on the latest source and all failures of automation unit test and build bugs are reported and addressed</t>
+  </si>
+  <si>
+    <t>remove…quick…till…end. Not sure how can you "debug" the procedure "performance" :)</t>
+  </si>
+  <si>
+    <t>Actively get consult from experience people who….</t>
+  </si>
+  <si>
+    <t>I have use jira for most of projects</t>
+  </si>
+  <si>
+    <t>…clear goal…same direction for all problem solving</t>
+  </si>
+  <si>
+    <t>raise the problem to the author; track it as issue on jira (?) and follow it up till it's addressed. Beside, I still keep moving with my own task and revisit it once the document issue is fixed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +231,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -247,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -269,6 +314,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,11 +637,11 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,9 +653,10 @@
     <col min="5" max="5" width="28.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -626,8 +678,11 @@
       <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H1" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -641,8 +696,11 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H2" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -658,8 +716,11 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H3" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -675,8 +736,11 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-    </row>
-    <row r="5" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="H4" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -689,8 +753,11 @@
       <c r="D5" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -700,7 +767,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -713,8 +780,11 @@
       <c r="D7" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H7" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -727,8 +797,11 @@
       <c r="D8" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H8" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -742,7 +815,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -755,8 +828,11 @@
       <c r="D10" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -767,8 +843,11 @@
       <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H11" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -781,8 +860,11 @@
       <c r="D12" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="H12" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -793,8 +875,11 @@
       <c r="D13" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H13" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -805,8 +890,11 @@
       <c r="D14" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H14" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -817,8 +905,11 @@
       <c r="D15" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H15" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -829,8 +920,11 @@
       <c r="D16" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="H16" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -841,8 +935,11 @@
       <c r="D17" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H17" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -854,7 +951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -865,8 +962,11 @@
       <c r="D19" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="H19" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -876,6 +976,9 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
         <v>47</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
